--- a/Пример заявления.xlsx
+++ b/Пример заявления.xlsx
@@ -673,7 +673,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
